--- a/Resources/data_OREG-1.xlsx
+++ b/Resources/data_OREG-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScriptRepositories\OpenEMR.suite\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888FF076-28AF-4F5B-86C6-B997EDF0BBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D10D89-4907-493A-8133-3B3310B4F586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41530" yWindow="-20010" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>RecNumber</t>
   </si>
@@ -201,18 +201,9 @@
     <t>Separated</t>
   </si>
   <si>
-    <t>03/27/98</t>
-  </si>
-  <si>
-    <t>04/01/99</t>
-  </si>
-  <si>
     <t>Mario</t>
   </si>
   <si>
-    <t>06/01/90</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -229,6 +220,12 @@
   </si>
   <si>
     <t>1999-04-01</t>
+  </si>
+  <si>
+    <t>1990-06-01</t>
+  </si>
+  <si>
+    <t>1998-03-27</t>
   </si>
 </sst>
 </file>
@@ -324,9 +321,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -364,7 +361,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -470,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -612,7 +609,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,44 +623,44 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.3828125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.15234375" style="5" customWidth="1"/>
-    <col min="3" max="5" width="26.69140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.15234375" style="3"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="5" customWidth="1"/>
+    <col min="3" max="5" width="26.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="3"/>
     <col min="8" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.15234375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="5" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.15234375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29.15234375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.15234375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.53515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="21.53515625" customWidth="1"/>
-    <col min="33" max="33" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="21.5546875" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.15234375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.23046875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.15234375" style="5"/>
+    <col min="35" max="35" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -785,7 +782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -795,13 +792,13 @@
         <v>Eggplanttest, Mario</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -819,7 +816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -834,7 +831,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>24</v>
@@ -852,7 +849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -867,7 +864,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -889,7 +886,7 @@
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -899,13 +896,13 @@
         <v>Eggplanttest, Mark</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -923,7 +920,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -932,13 +929,13 @@
         <v>Eggplanttest, Janet</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>24</v>
@@ -956,7 +953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -965,13 +962,13 @@
         <v>Eggplanttest, Callie</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>17</v>
